--- a/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>4.447918122822773</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.902425041944137</v>
+        <v>4.90242504194414</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.019578638205525</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.108113051751883</v>
+        <v>1.252984044393722</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1759347829626486</v>
+        <v>0.4167901356896198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.231495780828814</v>
+        <v>2.314601431795385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.495477046378973</v>
+        <v>6.701857202047222</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.126572703632221</v>
+        <v>2.225470214585092</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.192803527016678</v>
+        <v>3.168999303345422</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.517953669516201</v>
+        <v>4.220464052854569</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.962693093719649</v>
+        <v>1.905123102900846</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.366183879878488</v>
+        <v>3.284906688234131</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.090551714996751</v>
+        <v>5.163451646242106</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.792729374008824</v>
+        <v>3.997872358114435</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.499494169623474</v>
+        <v>6.413410384783049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.69074622938571</v>
+        <v>11.65393109846744</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.708887616997821</v>
+        <v>6.816315304511644</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.587942851939228</v>
+        <v>6.557605671913115</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.834212331337401</v>
+        <v>7.607590771750841</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.660287135946153</v>
+        <v>4.761988592456553</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.004604367913742</v>
+        <v>6.058819387026042</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>2.238765278043645</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2.467531698886335</v>
+        <v>2.467531698886336</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>3.17044041443885</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3741336938595723</v>
+        <v>0.3615767134187233</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02601826187282256</v>
+        <v>0.1070883412173776</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7275390904297742</v>
+        <v>0.7986186840024794</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.098367490207778</v>
+        <v>2.204012386005838</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7105969546454063</v>
+        <v>0.7247326075121816</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.059501205834529</v>
+        <v>0.9900462230352475</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.739773731471468</v>
+        <v>1.659504760052122</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7638081926190061</v>
+        <v>0.7405067093595944</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.322058590802955</v>
+        <v>1.29695389333007</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.467532251002271</v>
+        <v>4.440503664320302</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.174440065070633</v>
+        <v>3.347319138816139</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.276241899418449</v>
+        <v>5.507013481071618</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>8.979876542668348</v>
+        <v>9.238836710988751</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.945832725448274</v>
+        <v>5.214598842060555</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.446623976174801</v>
+        <v>5.449047199307378</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.343095854845155</v>
+        <v>5.38268129862169</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.20976711243765</v>
+        <v>3.265929787242432</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.246765594572146</v>
+        <v>4.290071278247276</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.004469428198091</v>
+        <v>-1.19136360119925</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.064825737703299</v>
+        <v>-3.147720784199662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.057685218734926</v>
+        <v>-2.161788585839898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.500270160790665</v>
+        <v>1.76411120747066</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.824725911013012</v>
+        <v>-1.731421911074843</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9918134286980941</v>
+        <v>0.6866575318054603</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7259174545610728</v>
+        <v>0.8568095114379668</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.876704442859503</v>
+        <v>-1.876380450889808</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.08240045740529435</v>
+        <v>-0.001931746484890341</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.79197938509677</v>
+        <v>2.748109850652312</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2548565104174846</v>
+        <v>0.2191697012380312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.384662456314216</v>
+        <v>1.443345705565996</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.062270203201012</v>
+        <v>5.948759916712612</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.094588177658874</v>
+        <v>2.102638730646217</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.674780492720642</v>
+        <v>4.618265039308765</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.710067252828924</v>
+        <v>3.800278155207777</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5928686005300168</v>
+        <v>0.6747977900770996</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.487003769899137</v>
+        <v>2.50515614025601</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.207311470289002</v>
+        <v>-0.2410260673139779</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5989878515335468</v>
+        <v>-0.6084532020271682</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4236276260883995</v>
+        <v>-0.4214591877455298</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2461577879183238</v>
+        <v>0.3322676490645384</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3479763081500152</v>
+        <v>-0.3329955646270281</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1312697743941448</v>
+        <v>0.113832568401756</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1275026616130131</v>
+        <v>0.1751062271139097</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3884226334557029</v>
+        <v>-0.3920442958450349</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.01909155346680626</v>
+        <v>-0.005286956738956574</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8896414537020343</v>
+        <v>0.894499713731766</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1000324442661175</v>
+        <v>0.1005170510218827</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4440996082464528</v>
+        <v>0.4656118698846112</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.809313434543654</v>
+        <v>1.77452323401231</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6662782467492963</v>
+        <v>0.6471058734725696</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.363946700240855</v>
+        <v>1.379568160557584</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.012437698928641</v>
+        <v>1.075268687607606</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1586734642086559</v>
+        <v>0.189966835344241</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7134880149742348</v>
+        <v>0.7299242064687921</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.2833001552532396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.528980815227763</v>
+        <v>2.528980815227764</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.138530651595659</v>
@@ -1083,7 +1083,7 @@
         <v>-0.3265898231981451</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.426388937579545</v>
+        <v>1.426388937579548</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.911975582772221</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.535137228132358</v>
+        <v>-1.586868696822427</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.79055346256949</v>
+        <v>-1.749080608575209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06976150838260528</v>
+        <v>0.237965839188073</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5276233812976437</v>
+        <v>0.4905826286702409</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.764789127820507</v>
+        <v>-2.761220645226211</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8232905848307949</v>
+        <v>-0.9506797260235567</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.330339391597219</v>
+        <v>0.1906041665689645</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.529174019887866</v>
+        <v>-1.577480431473997</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2897488238002501</v>
+        <v>0.323099237132217</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.67963649725614</v>
+        <v>2.625990330940491</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.350784942441913</v>
+        <v>2.390724781097967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.850751173210756</v>
+        <v>4.771577734152387</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.766535743407255</v>
+        <v>6.00222957503904</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.827741310341692</v>
+        <v>1.936855659740879</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.626733022914856</v>
+        <v>3.668796688437422</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.630693964891852</v>
+        <v>3.669803182785436</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.594993129325856</v>
+        <v>1.448394301811901</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.41492679035799</v>
+        <v>3.520025063172534</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.08489119694098672</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7578118277187994</v>
+        <v>0.7578118277187996</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5794533628091055</v>
@@ -1188,7 +1188,7 @@
         <v>-0.06029686892341905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.263348030752531</v>
+        <v>0.2633480307525316</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4364385656638516</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3727330755882621</v>
+        <v>-0.3633718047363544</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4137549007064602</v>
+        <v>-0.3933305411682285</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.005831212861934101</v>
+        <v>0.01796493899438445</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.0653385124693074</v>
+        <v>0.05689008328146979</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4004571660237903</v>
+        <v>-0.4133642417523134</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1208211102287195</v>
+        <v>-0.1383265494474505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06435672900110606</v>
+        <v>0.03263936248050595</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2998690646985522</v>
+        <v>-0.3082766684917951</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.05148451169206382</v>
+        <v>0.05537749118189415</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.199659943973452</v>
+        <v>1.08901940670358</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.010056114370784</v>
+        <v>1.030473124100767</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.10635491601129</v>
+        <v>1.969472455322831</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.385587921374846</v>
+        <v>1.419124138100976</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4498309896778553</v>
+        <v>0.4635710947135188</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.906972772175461</v>
+        <v>0.8828622236695344</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.042783967464387</v>
+        <v>0.998614790345655</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4513998139853131</v>
+        <v>0.3906090467315648</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.953565901015781</v>
+        <v>0.9541429580451299</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6792872308277277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.527992557165713</v>
+        <v>2.527992557165712</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.155435935926766</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4440859974619547</v>
+        <v>-0.1590418480644087</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.006233531332598</v>
+        <v>-1.159386663164712</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8344764339125167</v>
+        <v>0.7895550915987615</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5714121131002942</v>
+        <v>0.984983328955071</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.739067965757477</v>
+        <v>-2.591328067143818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4753506713926686</v>
+        <v>-0.5456127041599053</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8125806173316059</v>
+        <v>0.9544194611520738</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.368056175142389</v>
+        <v>-1.367174817671488</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7217114315557065</v>
+        <v>0.8223557685606693</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.423758605951426</v>
+        <v>3.532254908316154</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.481771204839761</v>
+        <v>2.516517518237297</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.288755118778992</v>
+        <v>4.437392150503569</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.606665295782952</v>
+        <v>5.400463325315024</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.586788204361608</v>
+        <v>1.761400335621798</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.84098919156791</v>
+        <v>3.7958306983877</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.865381195599007</v>
+        <v>3.919528060322151</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.531489880313512</v>
+        <v>1.481369325430971</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.461660786872807</v>
+        <v>3.567123110442835</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2113028024187637</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7863711955427025</v>
+        <v>0.7863711955427023</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4607322450917177</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1354640242041466</v>
+        <v>-0.06051339154488655</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2514220219998909</v>
+        <v>-0.3049767240348594</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1897647729509493</v>
+        <v>0.1660193257348366</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06550894866504965</v>
+        <v>0.1164531849814693</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3526288411672585</v>
+        <v>-0.3445859124184502</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05994857090476758</v>
+        <v>-0.07365020008960994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1430399989390187</v>
+        <v>0.1685768029279801</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2400956618465764</v>
+        <v>-0.2319881292613837</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1193021443519038</v>
+        <v>0.1342952240719632</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.358907480865222</v>
+        <v>1.424950570472644</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.094047549113671</v>
+        <v>1.007327901244289</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.876542937695334</v>
+        <v>1.804138415376958</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9848043280321608</v>
+        <v>0.9280415146934986</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2732121167040563</v>
+        <v>0.3215702740063637</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6966261083491029</v>
+        <v>0.6760140682127178</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8745279084558386</v>
+        <v>0.9025167646603066</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3254594881199259</v>
+        <v>0.3314540626758585</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8096576125182106</v>
+        <v>0.8203177669930729</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.2783966246153333</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.039987086733661</v>
+        <v>2.039987086733662</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.475870962860765</v>
@@ -1511,7 +1511,7 @@
         <v>0.6784176552882361</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.606354272822482</v>
+        <v>2.606354272822481</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.996987310924585</v>
@@ -1520,7 +1520,7 @@
         <v>0.4873252230141533</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.341252046322673</v>
+        <v>2.341252046322674</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4947877156097306</v>
+        <v>0.5597660223757389</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5406993135092802</v>
+        <v>-0.7279475755640156</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.080938409885803</v>
+        <v>0.9264742572297239</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.275611652559916</v>
+        <v>3.281744727548465</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5047254966529119</v>
+        <v>-0.4029794192278743</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.701476810939303</v>
+        <v>1.56432369897891</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.225529537392855</v>
+        <v>2.223794158262537</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2037124589313178</v>
+        <v>-0.1984770863696363</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.619376226564993</v>
+        <v>1.630974905862443</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.417574072448925</v>
+        <v>2.459196601027841</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.248009085175977</v>
+        <v>1.107240245422503</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.094778709023027</v>
+        <v>3.005139395568906</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.779674468137834</v>
+        <v>5.755254743111711</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.76217451165841</v>
+        <v>1.745123412468996</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.705280158099064</v>
+        <v>3.552944889448057</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.832600083460125</v>
+        <v>3.81071625067444</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.250081069296675</v>
+        <v>1.257312925311564</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.116528181062549</v>
+        <v>3.004216323125315</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.08736432005844225</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6401732959468964</v>
+        <v>0.6401732959468969</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.9228510393492302</v>
@@ -1616,7 +1616,7 @@
         <v>0.1398785719004412</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5373874201344705</v>
+        <v>0.5373874201344703</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.7434553361272584</v>
@@ -1625,7 +1625,7 @@
         <v>0.1208895800654911</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.5807886875972342</v>
+        <v>0.5807886875972346</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1314511574667419</v>
+        <v>0.1388615968425996</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.158022255709067</v>
+        <v>-0.1917110033721603</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2938127045892814</v>
+        <v>0.2282837686384108</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.6075276315350751</v>
+        <v>0.5975960656928313</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.09289767945900301</v>
+        <v>-0.08507254242732104</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3075710659330676</v>
+        <v>0.2827621474407903</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5062252308352307</v>
+        <v>0.5059324937506737</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.0469329967036134</v>
+        <v>-0.04288395376948975</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.358306383271826</v>
+        <v>0.3695542265875328</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8842795686339595</v>
+        <v>0.8930127833272777</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4595608178375908</v>
+        <v>0.4038460177866051</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.107934323316102</v>
+        <v>1.086045471270503</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.358942541179289</v>
+        <v>1.311006858349098</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3965874384851783</v>
+        <v>0.3973429983905395</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8675856503543474</v>
+        <v>0.8112024578733843</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.023769604380138</v>
+        <v>1.051671467978201</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3262131368848779</v>
+        <v>0.3423223136487622</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8384015942081746</v>
+        <v>0.8254010119206844</v>
       </c>
     </row>
     <row r="34">
